--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-16.49871876876686</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.951825504960766</v>
+        <v>-8.683747511973584</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.88973579706487</v>
+        <v>-2.944278330703501</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.476787930892782</v>
+        <v>-5.334932829602681</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.29132662420851</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.228452771703596</v>
+        <v>-8.938117863885479</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.919507693726955</v>
+        <v>-3.014217412484001</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.404518419206455</v>
+        <v>-5.253616536652721</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.07464188544748</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.05267869710446</v>
+        <v>-9.76095600518512</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.790273572376277</v>
+        <v>-2.891987673153647</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.272220698990813</v>
+        <v>-5.120022678455747</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.86480949103129</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.81956033605857</v>
+        <v>-10.541008500798</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.717506553181964</v>
+        <v>-2.808930103925737</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.496072892978646</v>
+        <v>-5.349177255094479</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.65388654262988</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.61871450151753</v>
+        <v>-11.32409841067016</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.562925733529704</v>
+        <v>-2.655370483895132</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.040002523487118</v>
+        <v>-4.899901790777807</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.44083081637028</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.30460715509271</v>
+        <v>-12.00271174386535</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.546835293337222</v>
+        <v>-2.635876044963801</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.14188682420143</v>
+        <v>-5.018020547015859</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.22006715167165</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.83045949873064</v>
+        <v>-12.51484335412515</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.425508922902947</v>
+        <v>-2.511001660459418</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.686274685309363</v>
+        <v>-4.581313693427245</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.98746516867466</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.79493017217207</v>
+        <v>-13.47376289116169</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.171348047836519</v>
+        <v>-2.254732924635472</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.572306189072137</v>
+        <v>-4.497981185839659</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.74360324848899</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.55835544317596</v>
+        <v>-14.22811519629626</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.154380423353642</v>
+        <v>-2.220876229486768</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.161626833532874</v>
+        <v>-4.096492626895286</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.50004277908571</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.22510714999655</v>
+        <v>-14.90886257485465</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.988880623131382</v>
+        <v>-2.057327182387926</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.943967298789178</v>
+        <v>-3.885418520480979</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.27377778137335</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.87519235529961</v>
+        <v>-15.55505936621373</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.017880073925806</v>
+        <v>-2.065418225544113</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.434585072126142</v>
+        <v>-3.380579322904022</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.08437136944317</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.83675653751018</v>
+        <v>-16.50992028936933</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.825423222152433</v>
+        <v>-1.884849184751027</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.79249926385937</v>
+        <v>-2.738991022145236</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.94908583543659</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.45267083239634</v>
+        <v>-17.14874611422852</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.571275439388846</v>
+        <v>-1.632351032145498</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.424801938549494</v>
+        <v>-2.360702023836403</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.87073943165177</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.35249171440534</v>
+        <v>-18.04748033510164</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.428189661631622</v>
+        <v>-1.473737783217987</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.860916455156352</v>
+        <v>-1.783043437853765</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.83654455217008</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.243488384299</v>
+        <v>-18.94476131035934</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.269484766584219</v>
+        <v>-1.317049102808209</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.447343700689067</v>
+        <v>-1.394909027807954</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.8215262994071</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.03891124344807</v>
+        <v>-19.72963177341797</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.041600143321135</v>
+        <v>-1.07516880780732</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9349764289781175</v>
+        <v>-0.8823191869486953</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.79438301694673</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.99433513562587</v>
+        <v>-20.69512364648106</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9596946967432963</v>
+        <v>-0.9789141973149502</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5697797335110105</v>
+        <v>-0.5091230944452937</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.72420146766536</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.83078927188091</v>
+        <v>-21.52672053838182</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8135976893324751</v>
+        <v>-0.8200260100277627</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1965574564019255</v>
+        <v>-0.148024289767647</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.58633262032416</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.47202408046297</v>
+        <v>-22.16600459384046</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5669910730057229</v>
+        <v>-0.5688239954035645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1776860203288141</v>
+        <v>0.2425583809095668</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.36526140653865</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.09394774235348</v>
+        <v>-22.79757728292533</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2732783510544403</v>
+        <v>-0.2672558917472463</v>
       </c>
       <c r="G21" t="n">
-        <v>0.52133278531844</v>
+        <v>0.5717381512590853</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.05686783821992</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.73654415043108</v>
+        <v>-23.43171606336717</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05671856974944941</v>
+        <v>-0.01979827573578189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5566558183854169</v>
+        <v>0.563673292708582</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.66995807272992</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.20980471355379</v>
+        <v>-23.92931521747266</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03753291840813656</v>
+        <v>0.08682543860723521</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8166820451249384</v>
+        <v>0.8269333182500098</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.22423203642506</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.58118097596219</v>
+        <v>-24.29283609817602</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01459520382943249</v>
+        <v>0.05790454162986232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7738440302268106</v>
+        <v>0.7666694482695448</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.74595401615227</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.86528394762765</v>
+        <v>-24.58052636082011</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3023771125934132</v>
+        <v>0.3414576365759655</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7463109173506607</v>
+        <v>0.7456955791170996</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.26308088063584</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.87230142195082</v>
+        <v>-24.59465295558633</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3124974626900675</v>
+        <v>0.3515518020669363</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6100985985853427</v>
+        <v>0.602439601422933</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.80286928479578</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.82183059449596</v>
+        <v>-24.53514843917069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1190586882035648</v>
+        <v>0.170668546005649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5887057757419623</v>
+        <v>0.5703765517635458</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.38659740952013</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.91198419186409</v>
+        <v>-24.65318864159169</v>
       </c>
       <c r="F28" t="n">
-        <v>0.268546602050393</v>
+        <v>0.301958158902478</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2900048864079821</v>
+        <v>0.2678134330912564</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.02835066547764</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.95517569893894</v>
+        <v>-24.680459908411</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2419954118873726</v>
+        <v>0.2742286614837021</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1830145875853966</v>
+        <v>0.1534521677687792</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.734576525531073</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.74956108280963</v>
+        <v>-24.47870752162001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09380363602187521</v>
+        <v>0.1266784084574493</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0039304046916099</v>
+        <v>-0.04570794305955778</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.503404999171238</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.27719079628016</v>
+        <v>-23.9988615301679</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0998784645404361</v>
+        <v>0.1306846531270175</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5039647271256537</v>
+        <v>-0.5283818719254727</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.327407496641245</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.32580251673149</v>
+        <v>-24.05445144803387</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1496161230361534</v>
+        <v>0.179361835092555</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6238378519444975</v>
+        <v>-0.6318896181921591</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.200347671559614</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.9324050009433</v>
+        <v>-23.65230827394742</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08249188636662387</v>
+        <v>0.1084015536903998</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.127668942202642</v>
+        <v>-1.117286746049153</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.112905544747518</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.34827881735685</v>
+        <v>-23.09206245074427</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04109945245927021</v>
+        <v>-0.04126965239621265</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.205411036476811</v>
+        <v>-1.19963733092361</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.054319110079664</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.98490195198475</v>
+        <v>-22.73826915105231</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.237876764170413</v>
+        <v>-0.2390550714261684</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.27427654942429</v>
+        <v>-1.233729687523465</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.012448038082239</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.25323860767488</v>
+        <v>-22.0263882763363</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.35291882924066</v>
+        <v>-0.3556813051402642</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.466798862711872</v>
+        <v>-1.452135483529139</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.972914257894818</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.45551150322567</v>
+        <v>-21.22250778955147</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2909529598907705</v>
+        <v>-0.2912540828561302</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.594173877059025</v>
+        <v>-1.573841530745824</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.922690346639614</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.08155605715745</v>
+        <v>-20.85280734190681</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3714837146702276</v>
+        <v>-0.3623976564980697</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.851817304681352</v>
+        <v>-1.831524235276677</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.855072686988226</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.42660051519726</v>
+        <v>-20.19908247641375</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.217897910033939</v>
+        <v>-0.1981547173486161</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.016479197521741</v>
+        <v>-1.987466654424476</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.768277034766491</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.08373928837814</v>
+        <v>-19.88274625515196</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4799272591082446</v>
+        <v>-0.4775444599910504</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.23454459365353</v>
+        <v>-2.209119341534898</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.664505924024009</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.54105024328575</v>
+        <v>-19.36016698722446</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.199830532112357</v>
+        <v>-0.1920798888300552</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.092715676969112</v>
+        <v>-2.046722417086128</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.548587468198962</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.96806560941761</v>
+        <v>-18.77457446571974</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0331339046533166</v>
+        <v>0.04972185235378353</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.133864784800657</v>
+        <v>-2.039246712163503</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.423838962342854</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.07421481750445</v>
+        <v>-17.87377166099762</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04919816024011448</v>
+        <v>0.05131911330047411</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.041655695886381</v>
+        <v>-1.917239541981457</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.292110483595883</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.73094772929723</v>
+        <v>-17.53554510938447</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08086844081424985</v>
+        <v>0.08284537854335049</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.235618162486552</v>
+        <v>-2.108871578675802</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.156957574827528</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.1836632859074</v>
+        <v>-17.00014847697492</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05143694402604964</v>
+        <v>0.04953856011399936</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.29529287883914</v>
+        <v>-2.158962729348246</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.026034982482903</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.75464161408688</v>
+        <v>-16.61125471336429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09731237318345778</v>
+        <v>0.08232168642968143</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.21467047793979</v>
+        <v>-2.106632794889867</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.908527331063983</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.12473164746291</v>
+        <v>-15.97736468667644</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1102213837853997</v>
+        <v>0.09153866763025659</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.542580294913662</v>
+        <v>-2.401785670153739</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.810555572096187</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.46514143029675</v>
+        <v>-15.32535491285564</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1049451857401841</v>
+        <v>0.07940210289597652</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.462062632437046</v>
+        <v>-2.331925142190289</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.734462556773675</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.9043588226771</v>
+        <v>-14.78214217564959</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2272011096762221</v>
+        <v>0.2154442217243521</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.688140517907972</v>
+        <v>-2.53430595951769</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.680821228109615</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.23023614935662</v>
+        <v>-14.11630693002792</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3682052112816119</v>
+        <v>0.371399733174993</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.652896038658045</v>
+        <v>-2.461905524802945</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.651099852633974</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.43226029115342</v>
+        <v>-13.34164846318583</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3605069372106769</v>
+        <v>0.3534370936761448</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.734893131355776</v>
+        <v>-2.530352084059489</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.647968676744345</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82528803910816</v>
+        <v>-12.73975602464316</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4444416907289828</v>
+        <v>0.445240321202328</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.727351964918941</v>
+        <v>-2.535759205133122</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.671562731357875</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19308691948689</v>
+        <v>-12.11012099637887</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4984998091624697</v>
+        <v>0.4943888260701677</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.767322765494731</v>
+        <v>-2.561943810816574</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.721055998849431</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8117997838273</v>
+        <v>-11.72329581661723</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3994696304676537</v>
+        <v>0.3916404333683015</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.880204600596093</v>
+        <v>-2.663801926925203</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.79580074448378</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.32302484183714</v>
+        <v>-11.27060326125887</v>
       </c>
       <c r="F55" t="n">
-        <v>0.150257645875398</v>
+        <v>0.1295979919911543</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.361241991606792</v>
+        <v>-3.131000753832198</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.893429310671657</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.91173014806432</v>
+        <v>-10.85346940041864</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2212702964889202</v>
+        <v>0.2198825123876972</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.444535222285854</v>
+        <v>-3.198635590312555</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.011432245535255</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14687781605068</v>
+        <v>-10.0913795443046</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1798855272062241</v>
+        <v>0.1798724349033824</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.810726932768932</v>
+        <v>-3.54280604741585</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.146539056893092</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.850468079714002</v>
+        <v>-9.790400594276162</v>
       </c>
       <c r="F58" t="n">
-        <v>0.009764144080835568</v>
+        <v>-0.001874913145458907</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.831622248104327</v>
+        <v>-3.586678354238474</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.294811374219334</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.272521463068847</v>
+        <v>-9.232524477887374</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08302867078313464</v>
+        <v>0.09279552870306229</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.118566249486437</v>
+        <v>-3.859626683882779</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.453143284364192</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.940553032214041</v>
+        <v>-8.898998062994401</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04462128192369452</v>
+        <v>-0.04882391113588859</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.038310433066656</v>
+        <v>-3.78977924822217</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.620160391500741</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.401006139803666</v>
+        <v>-8.371469904592733</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.06945738041444888</v>
+        <v>-0.06958830344286614</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.436512823997754</v>
+        <v>-4.185101332528089</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.795755105494372</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.916931334533687</v>
+        <v>-7.881019147838833</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.03040304103758001</v>
+        <v>-0.02060999851196891</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.414818878189014</v>
+        <v>-4.151820698704421</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.982923378924665</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.450858445671081</v>
+        <v>-7.391052806290077</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.04487003567768732</v>
+        <v>-0.05495110886581639</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.407722850048799</v>
+        <v>-4.153143021291435</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.186276919371243</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.120421814248757</v>
+        <v>-7.067568187676708</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2107626049851983</v>
+        <v>-0.2215113856182554</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.618351818166488</v>
+        <v>-4.391959717427361</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.40916923977386</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.738296771207298</v>
+        <v>-6.676422547977301</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1639314377203442</v>
+        <v>-0.177272494316063</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.883654242951225</v>
+        <v>-4.666099446630263</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.651413439708943</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.48831234074738</v>
+        <v>-6.425508564015621</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2669678610847284</v>
+        <v>-0.287247838186562</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.861488974240182</v>
+        <v>-4.648424837793932</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.909907281106809</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.339125549865912</v>
+        <v>-6.27820706474336</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3398003417932505</v>
+        <v>-0.3468701853277825</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.95217935602482</v>
+        <v>-4.744941294343137</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.17897945016449</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.066111758707398</v>
+        <v>-6.005206365887688</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3009947561703744</v>
+        <v>-0.3187086419152297</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.963242351926078</v>
+        <v>-4.761974380340223</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.45071964456705</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.931103931803519</v>
+        <v>-5.866427955765392</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5563994000067666</v>
+        <v>-0.5626575207651116</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.030091650235931</v>
+        <v>-4.848933455814968</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.71737737432665</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.735897696433383</v>
+        <v>-5.644591976415185</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.508154264035006</v>
+        <v>-0.5182746141316602</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.869291986733852</v>
+        <v>-4.698214865501017</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.97142585355867</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.624167983982093</v>
+        <v>-5.523619098157637</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5787872378661181</v>
+        <v>-0.6007561220345344</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.82331181915371</v>
+        <v>-4.664161785809688</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.20469594477334</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.637993455782956</v>
+        <v>-5.520267468630155</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6926902725891348</v>
+        <v>-0.7045780835694222</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.695949897109398</v>
+        <v>-4.565995699102425</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.4103624258382</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.68588509957799</v>
+        <v>-5.553273164094146</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7231429689989898</v>
+        <v>-0.7478350521584851</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.496802878583903</v>
+        <v>-4.36790915710711</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.58344694970611</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.923654411486577</v>
+        <v>-5.797549350515071</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6118583948443181</v>
+        <v>-0.6444451366173743</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.357042545748477</v>
+        <v>-4.245221187177295</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.7188579300922</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.136247225030525</v>
+        <v>-6.00620138090366</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9574951898658863</v>
+        <v>-0.9738998453265691</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.186921162623089</v>
+        <v>-4.066223222725216</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.81442907732733</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.624537751815541</v>
+        <v>-6.519655313750473</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8817431256236593</v>
+        <v>-0.8984750886553853</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.015123964733959</v>
+        <v>-3.907204112409611</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.86958016840831</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.076536415123291</v>
+        <v>-6.972819192011137</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9404228269602756</v>
+        <v>-0.9610824808445193</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.933873133298207</v>
+        <v>-3.83119020211055</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.8837008088962</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.659602122179561</v>
+        <v>-7.539715905057876</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.9969030214194818</v>
+        <v>-1.024658703443941</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.565246254486568</v>
+        <v>-3.447991590236069</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.85646982956042</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.081946719550803</v>
+        <v>-7.957661488674297</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9626797417912099</v>
+        <v>-0.9946118684221797</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.379715230916468</v>
+        <v>-3.240832082371438</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.78822430348863</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.552457899076755</v>
+        <v>-8.434221312113126</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.165675897352173</v>
+        <v>-1.188796904170661</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.004817139043642</v>
+        <v>-2.869442727660195</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.67981431799956</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.45997705515668</v>
+        <v>-9.373895163972332</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.090303509892356</v>
+        <v>-1.11324122447106</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.000352663774613</v>
+        <v>-2.853823610370015</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.53432421416338</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.24997970092927</v>
+        <v>-10.18351007940183</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.179789399815553</v>
+        <v>-1.205018267391559</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.804596551685125</v>
+        <v>-2.664705295821282</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.35777621997417</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.06984588948384</v>
+        <v>-11.01950598505741</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.28769615983706</v>
+        <v>-1.303524753972706</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.44783129924809</v>
+        <v>-2.305203752090326</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.15838107637402</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.26821055319271</v>
+        <v>-12.22727092220664</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.370007467802991</v>
+        <v>-1.389305522191695</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.305779813415362</v>
+        <v>-2.182594335977561</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.94539573915147</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.14263236768875</v>
+        <v>-13.10175819821689</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.455316913119678</v>
+        <v>-1.482745287573094</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.970250276187606</v>
+        <v>-1.839785478369806</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.72886830144906</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.31394833372662</v>
+        <v>-14.30192959971792</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.634812385079743</v>
+        <v>-1.674338047358914</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.719859984339595</v>
+        <v>-1.596923260655787</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.51765015649543</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.38560569053327</v>
+        <v>-15.39122228845237</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.685283212534597</v>
+        <v>-1.727414243079271</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.310254197633353</v>
+        <v>-1.183062475525985</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.31881252796191</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.76558677926256</v>
+        <v>-16.77884928204123</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.670357987295029</v>
+        <v>-1.732323856644919</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9889559935945541</v>
+        <v>-0.8692268841069692</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.138615082715</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.42604427177015</v>
+        <v>-18.47025697846666</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.912028805450451</v>
+        <v>-1.973981582497498</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7903326671827279</v>
+        <v>-0.6598940539706111</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.98374637567321</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.0081705163757</v>
+        <v>-20.07440447645199</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.119973851485585</v>
+        <v>-2.191104332824684</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4889085788576686</v>
+        <v>-0.3596351805984654</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.858921914106036</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.81488212392821</v>
+        <v>-21.90305878356724</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.308398273983707</v>
+        <v>-2.389688382327984</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6301483419142094</v>
+        <v>-0.5110607552658691</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.769083303492309</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.50236212950113</v>
+        <v>-23.61502139545418</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.404194653876617</v>
+        <v>-2.484777777867441</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4438579647792892</v>
+        <v>-0.334707435987819</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.719715976905166</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.57754449912607</v>
+        <v>-25.68283279857923</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.569026746653948</v>
+        <v>-2.667926002320347</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.438228274557347</v>
+        <v>-0.340062187850085</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.714054539354361</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.79720043060947</v>
+        <v>-27.92906610483134</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.443471562401795</v>
+        <v>-2.54256720261082</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5596986603228815</v>
+        <v>-0.4704746164565183</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.754840063871423</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.08075989226333</v>
+        <v>-30.22211748604545</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.922676031014653</v>
+        <v>-3.038582188072454</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9150237594473269</v>
+        <v>-0.8431339245434092</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.843267301081656</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.27158657288925</v>
+        <v>-32.40265361663776</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.990978574939938</v>
+        <v>-3.104344825246443</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.162834867635518</v>
+        <v>-1.076857714873903</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.97196347612473</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.48968452033448</v>
+        <v>-34.62689185411577</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.341511891224311</v>
+        <v>-3.481664993144989</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.360227517580222</v>
+        <v>-1.306994214225764</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.13166607966294</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.00737363370693</v>
+        <v>-37.15055105758404</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.607076162065883</v>
+        <v>-3.7504106935771</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.772058995769557</v>
+        <v>-1.719100630774775</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.30259992489282</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.52388443982362</v>
+        <v>-39.68659557954059</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.547715660981497</v>
+        <v>-3.671411738230125</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.23112750261184</v>
+        <v>-2.199679791186014</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.47008601702018</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.0884309050666</v>
+        <v>-42.26076488737225</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.722026581016238</v>
+        <v>-3.84636418110411</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.569969392458552</v>
+        <v>-2.551456876240352</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.60577753278246</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.37628464205255</v>
+        <v>-44.53169027678384</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.97978783936414</v>
+        <v>-4.115083696930538</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.138109874275255</v>
+        <v>-3.146554409608168</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.70972526633473</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.72217655753587</v>
+        <v>-46.87028977958432</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.128948445639925</v>
+        <v>-4.273710038160891</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.460429277935709</v>
+        <v>-3.445818267964343</v>
       </c>
     </row>
   </sheetData>
